--- a/NLP Issues.xlsx
+++ b/NLP Issues.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t xml:space="preserve">Issue Name</t>
   </si>
@@ -175,6 +175,30 @@
   <si>
     <t xml:space="preserve">Just need to start work on this myself.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Initial Hold Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM Watson doesnt ends transcription if there is silence at the start of the call for more than 30 seconds. http://svn.i2cinc.com/MCP/Artificial_Intelligence/AI/Trunk/Source/CallTranscriptsAnalyticsNLP/data/omaha/222.155/571563267099231401564481905.txt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold Time Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is hold at the start or ending of the call – it doesnt get delivered to us because no dialogue is associated with it. We need to confirm how this hold time will be accomodated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libra Office Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With only 117 calls, the excel file says unable to load all lines and characters – and this has become problematic for manually seeing data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to shift to SQL fast!</t>
+  </si>
 </sst>
 </file>
 
@@ -318,12 +342,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.99"/>
@@ -613,26 +637,74 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    <row r="12" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -7558,7 +7630,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/NLP Issues.xlsx
+++ b/NLP Issues.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t xml:space="preserve">Issue Name</t>
   </si>
@@ -125,6 +125,9 @@
     <t xml:space="preserve">High</t>
   </si>
   <si>
+    <t xml:space="preserve">Haseeb, Ramsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">We are going to keep a flag inside nlp_model_1s table that defines a vectorizer type for every model.</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">Discuss with Ali Shan about this issue in order to decide whether we can come up with configs that can deal with aggregate solutions or do we need to write classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haseeb, Ali Majeed</t>
   </si>
   <si>
     <t xml:space="preserve">We will adjust in Configurations.</t>
@@ -198,6 +204,46 @@
   </si>
   <si>
     <t xml:space="preserve">Need to shift to SQL fast!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product UpSells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Followed policy and Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have to ask QA what and how do they deduct or award marks on this KPI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up another meeting with QA and Comerica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to confirm the number of times a hard hold, soft hold and mute are allowed in a call.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to do with Captain, Doctor, etc – do we deduct marks on that? And then do we use first name or last name of customer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogue Based Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models can be dialogue or non-dialogue based for which different types of data is required; i.e. dialogue based or non-dialogued based call data. To differentiate between this is not present in current architecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add is_dialogued_based flag in nlp_models table. Discuess with Alishan to 
+Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haseeb</t>
   </si>
 </sst>
 </file>
@@ -341,20 +387,22 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,24 +584,24 @@
         <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -567,16 +615,16 @@
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -590,16 +638,16 @@
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -608,24 +656,24 @@
         <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -639,13 +687,13 @@
     </row>
     <row r="12" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>17</v>
@@ -662,13 +710,13 @@
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>17</v>
@@ -685,16 +733,16 @@
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -702,37 +750,101 @@
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -7630,7 +7742,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.64"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/NLP Issues.xlsx
+++ b/NLP Issues.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t xml:space="preserve">Issue Name</t>
   </si>
@@ -244,6 +244,45 @@
   </si>
   <si>
     <t xml:space="preserve">Haseeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSR partaking in side conversations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s not uncommon to have multiple participants in a call. To be able to distinguish whether they are from the card holder’s side or they’re just an irrelevant party the CSR is engaging in a conversation with, is a challenge in its own right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibly, the first few  of  the CSR’s lines will suffice to address this concern. If they’re not representative of what an appropriate opening should compose, it could be a resolution in itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sohaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level of unpreparedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauging insincerity and sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressed Sincere &amp; Appropriate Empathy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The QA team capitalizes on the level of sincerity while expressing empathy. They also emphasize on other subtleties such as showing sensitivity while delivering bad news. Aspects such as these fall under the hood of subjectivity.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tonal analysis of some sort might be a candidate solution given the fact that the QA team lays more weight in the way the CSR delivers such information, then the actual information itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipeline Run on Dev Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev Server doesnt have the correct version of TensorFlow (1.14) installed, with the following Dump Core Error on Version 1.5: Starting from 1.6 release, our prebuilt binaries will use AVX instructions. Older CPUs may not be able to execute these binaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Dev Server or update Ubuntu Version</t>
   </si>
 </sst>
 </file>
@@ -388,21 +427,19 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,37 +879,90 @@
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+    <row r="19" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -7742,10 +7832,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.64"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/NLP Issues.xlsx
+++ b/NLP Issues.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t xml:space="preserve">Issue Name</t>
   </si>
@@ -77,6 +77,9 @@
     <t xml:space="preserve">Tinker with IBM Watson API settings or talk to a representative.</t>
   </si>
   <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interruption</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t xml:space="preserve">Use NLTK instead (Already tried - almost takes equivalent time - also doesnt have options for two tags: coref and dep. Need to look at some other libraries for every tag.</t>
   </si>
   <si>
+    <t xml:space="preserve">Solved by downloading spacy model.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test QA KPI Data</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
     <t xml:space="preserve">Medium</t>
   </si>
   <si>
+    <t xml:space="preserve">Send to QA Team</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model Configs</t>
   </si>
   <si>
@@ -122,15 +131,15 @@
     <t xml:space="preserve">For every nlp_model_version_id, we need to store a flag that says: vectorizer_type: tfidf, count, onehot, etc. Then all I'll have to do is read the features a model needs and vectorize them on the basis of vectorizer_type for the given model.</t>
   </si>
   <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
     <t xml:space="preserve">Haseeb, Ramsha</t>
   </si>
   <si>
     <t xml:space="preserve">We are going to keep a flag inside nlp_model_1s table that defines a vectorizer type for every model.</t>
   </si>
   <si>
+    <t xml:space="preserve">Solved – using a vector function and separate vector types table</t>
+  </si>
+  <si>
     <t xml:space="preserve">Audio Graphs</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t xml:space="preserve">Discuss this with Batch Team while their configuring the system for retrieving calls and their transcripts</t>
   </si>
   <si>
+    <t xml:space="preserve">Discuss with IBM Rep/ ++Telephony\</t>
+  </si>
+  <si>
     <t xml:space="preserve">Separated Calls</t>
   </si>
   <si>
@@ -170,6 +182,9 @@
     <t xml:space="preserve">We will adjust in Configurations.</t>
   </si>
   <si>
+    <t xml:space="preserve">We will write methods for combination functions inside model class.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Libraries List</t>
   </si>
   <si>
@@ -192,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">If there is hold at the start or ending of the call – it doesnt get delivered to us because no dialogue is associated with it. We need to confirm how this hold time will be accomodated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solved.</t>
   </si>
   <si>
     <t xml:space="preserve">Data Visualization</t>
@@ -259,6 +277,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sohaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in scope of our project.</t>
   </si>
   <si>
     <t xml:space="preserve">Level of unpreparedness</t>
@@ -336,12 +357,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +434,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,12 +462,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.99"/>
@@ -525,8 +560,8 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -534,13 +569,13 @@
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -548,8 +583,8 @@
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -557,16 +592,16 @@
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -577,97 +612,109 @@
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -675,42 +722,45 @@
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -724,13 +774,13 @@
     </row>
     <row r="12" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>17</v>
@@ -738,8 +788,8 @@
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
@@ -747,13 +797,13 @@
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>17</v>
@@ -767,25 +817,28 @@
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>14</v>
@@ -793,16 +846,16 @@
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -813,19 +866,22 @@
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>12</v>
@@ -836,19 +892,22 @@
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
@@ -862,39 +921,39 @@
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>12</v>
@@ -903,35 +962,38 @@
         <v>13</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="G20" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -940,27 +1002,27 @@
         <v>13</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7832,7 +7894,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
